--- a/MDSSTestInputs.xlsx
+++ b/MDSSTestInputs.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.2">
